--- a/doc/项目完成百分比.xlsx
+++ b/doc/项目完成百分比.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84DE6D8-305A-4A6D-8637-5BF3B4F85E1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,26 +155,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>许常玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>李燕凤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>许常玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄伟锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李燕凤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实现后端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,13 +196,105 @@
   </si>
   <si>
     <t>5.需求变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.导言部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.需求需求简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.总体功能设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.体系结构设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.客户端模块详细设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.管理端模块设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.界面详细设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.详细设计简述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.客户端模块设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.教师界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.题库页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据库表更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习springMVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.管理员界面、学生界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.写domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.写mapper、service、controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤德金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接前端后端数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要设计、详细设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求规格说明书审查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,34 +367,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -323,6 +417,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -371,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,9 +501,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,6 +553,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -614,310 +745,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="F5" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="F8" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
+      <c r="E23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="E25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -925,41 +1116,53 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
+      <c r="E27" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -967,21 +1170,25 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -989,19 +1196,23 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1009,125 +1220,124 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="4"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="15"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E44" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1146,12 +1356,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1159,12 +1369,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
